--- a/docs/【1班】テーブル定義書.xlsx
+++ b/docs/【1班】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE649E2B-27FC-42B9-967C-DDF827E026FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB3E7F7-50BD-4367-90C0-6EC3AF364C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Image" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1413,53 +1414,7 @@
   </si>
   <si>
     <t>Nullの場合親投稿、値が入っている場合はその値を参照し返信（子投稿）</t>
-    <rPh sb="319" eb="321">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE SEQUENCE Post_ID_Sequence
-START WITH 1
-INCREMENT BY 1
-MAXVALUE 99999
-NOCACHE;
-CREATE TABLE Post (
-Post_ID NUMBER(5, 0) DEFAULT Post_ID_Sequence.NEXTVAL  
-,Thread_ID NUMBER(4, 0)   CONSTRAINT FK_Post_Thread_ID REFERENCES Thread(Thread_ID)
-,Content VARCHAR2(2000) NOT NULL
-,Post_User_Name VARCHAR2(100) DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名無しさん</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>'
-,Create_time TIMESTAMP(0) DEFAULT SYSDATE
-,Likes NUMBER(2, 0) DEFAULT 0
-,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
-,CONSTRAINT PK_Post_ID PRIMARY KEY(Post_ID)
-,CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
-);</t>
-    </r>
-    <rPh sb="319" eb="321">
+    <rPh sb="0" eb="35">
       <t>ナナ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -1477,6 +1432,50 @@
 ,File_Name VARCHAR2(100)  NOT NULL
 ,CONSTRAINT UQ_Image_File_Path UNIQUE(File_path)
 );</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE SEQUENCE Post_ID_Sequence
+START WITH 1
+INCREMENT BY 1
+MAXVALUE 99999
+NOCACHE;
+CREATE TABLE Post (
+Post_ID NUMBER(5, 0) DEFAULT Post_ID_Sequence.NEXTVAL PRIMARY KEY ,
+Thread_ID NUMBER(4, 0),
+Content VARCHAR2(2000) NOT NULL,
+Post_User_Name VARCHAR2(100) DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名無しさん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>',
+Create_time TIMESTAMP(0) DEFAULT SYSDATE,
+Likes NUMBER(2, 0) DEFAULT 0,
+Post_Reply_ID NUMBER(5, 0) NULL,
+CONSTRAINT FK_Post_Thread_ID FOREIGN KEY (Thread_ID) REFERENCES Thread(Thread_ID),
+CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
+ON DELETE SET NULL
+);</t>
+    </r>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1682,8 +1681,8 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2257,9 +2256,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2390,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="13">
-        <v>45322</v>
+        <v>45331</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -2443,7 +2440,7 @@
   </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2648,7 +2645,7 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:K29"/>
     </sheetView>
   </sheetViews>
@@ -3097,7 +3094,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K30"/>
+      <selection activeCell="C4" sqref="C4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3158,7 @@
         <v>45317</v>
       </c>
       <c r="J3" s="26">
-        <v>45322</v>
+        <v>45331</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>32</v>
@@ -3402,7 +3399,7 @@
     </row>
     <row r="18" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>

--- a/docs/【1班】テーブル定義書.xlsx
+++ b/docs/【1班】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB3E7F7-50BD-4367-90C0-6EC3AF364C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E008C75B-37BC-4813-B0BC-8D91AA2B98A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Image" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1443,7 +1442,7 @@
 NOCACHE;
 CREATE TABLE Post (
 Post_ID NUMBER(5, 0) DEFAULT Post_ID_Sequence.NEXTVAL PRIMARY KEY ,
-Thread_ID NUMBER(4, 0),
+Thread_ID NUMBER(4, 0) NOT NULL,
 Content VARCHAR2(2000) NOT NULL,
 Post_User_Name VARCHAR2(100) DEFAULT '</t>
     </r>
@@ -2256,7 +2255,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2645,8 +2644,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:K29"/>
+    <sheetView showGridLines="0" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3093,8 +3092,8 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3103,7 @@
     <col min="4" max="4" width="8.6640625" style="27" customWidth="1"/>
     <col min="5" max="6" width="12.6640625" style="27"/>
     <col min="7" max="7" width="25.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="27"/>
+    <col min="8" max="8" width="17.21875" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="27" customWidth="1"/>
     <col min="11" max="11" width="22.21875" style="27" customWidth="1"/>

--- a/docs/【1班】テーブル定義書.xlsx
+++ b/docs/【1班】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A17A50-359E-49BA-9744-4474FFABF63D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E693C52-E5F6-463F-A2FD-DD77523D071B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1036,32 +1036,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3, 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t xml:space="preserve">PRIMARYKEY DEFAULT Post_Sequence.NEXTVAL </t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1271,6 +1245,32 @@
 CONSTRAINT FK_POST_REPLY_ID FOREIGN KEY (POST_REPLY_ID) REFERENCES POST(POST_ID)
 ON DELETE SET NULL
 );</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="6"/>
   </si>
@@ -2021,7 +2021,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2255,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="54" t="s">
         <v>34</v>
@@ -2278,10 +2278,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>35</v>
@@ -2465,7 +2465,7 @@
       <c r="D3" s="60"/>
       <c r="E3" s="56"/>
       <c r="F3" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>36</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>24</v>
@@ -2547,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="61" t="s">
@@ -2562,7 +2562,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>29</v>
@@ -2588,7 +2588,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>26</v>
@@ -2612,7 +2612,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>27</v>
@@ -2621,7 +2621,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="55" t="s">
@@ -2666,7 +2666,7 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="58"/>
@@ -2848,7 +2848,9 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2973,7 +2975,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>23</v>
@@ -2982,13 +2984,13 @@
         <v>38</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="56"/>
     </row>
@@ -3001,7 +3003,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>24</v>
@@ -3010,7 +3012,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>22</v>
@@ -3027,7 +3029,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>25</v>
@@ -3051,7 +3053,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>26</v>
@@ -3075,7 +3077,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>27</v>
@@ -3084,7 +3086,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="55" t="s">
@@ -3099,7 +3101,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>45</v>
@@ -3125,20 +3127,20 @@
         <v>31</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" s="56"/>
     </row>
@@ -3152,7 +3154,7 @@
     </row>
     <row r="18" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
